--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>924103.9401048467</v>
+        <v>961248.6457728046</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>236428.3313983644</v>
+        <v>332906.6712380804</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9662474.503279343</v>
+        <v>10850698.87543053</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8503954.478074785</v>
+        <v>7918711.220456296</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>102.3487067965265</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X2" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>31.07413984670304</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>110.702757013834</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51.47427571028325</v>
       </c>
       <c r="S4" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>126.2798551468632</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>83.70888068730542</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>6.705939135480888</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825084</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>69.40990664858337</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>110.6740164241394</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229341</v>
+        <v>57.23129612437327</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13.46550985000064</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>22.35153719005479</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>6.005496868168014</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>15.80210689896973</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1458,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>155.3197306044668</v>
+        <v>40.67174917229976</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853699</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>138.3038958997682</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>88.47941361700335</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1661,19 +1663,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1743,7 +1745,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>17.13267830032996</v>
+        <v>12.2404937362352</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1783,10 +1785,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>61.4954412004503</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>175.3574237896889</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2056,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W20" t="n">
-        <v>292.1380595743619</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2251,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>29.16584928708725</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>122.3623168480189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>368.0745826192877</v>
+        <v>163.9427735553733</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2372,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017902</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>232.546795102019</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>33.45303598738865</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>224.244390277107</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773045</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2725,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>67.27045902789131</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>120.3545121035715</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>138.715659344981</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2925,7 +2927,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>144.5144179861489</v>
+        <v>60.38235645081242</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.3138620892177</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>33.53239382874479</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3080,22 +3082,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="T34" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3272,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>356.681260877744</v>
       </c>
       <c r="H35" t="n">
-        <v>287.6928269708228</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>342.6848008035827</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>356.681260877744</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3718,7 +3720,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>330.228294861196</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>90.97242552187856</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>58.4197124582186</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3977,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>168.5786113415027</v>
+        <v>210.7317760590121</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>89.30725745073083</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>43.99240337009249</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301.0384945329112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C2" t="n">
-        <v>301.0384945329112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D2" t="n">
-        <v>301.0384945329112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>617.0136766887008</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>617.0136766887008</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>369.9806136976479</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X2" t="n">
-        <v>858.9304414063566</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.9844679696339</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>335.2002861487693</v>
+        <v>491.978346200809</v>
       </c>
       <c r="C3" t="n">
-        <v>160.7472568676423</v>
+        <v>317.525316919682</v>
       </c>
       <c r="D3" t="n">
-        <v>160.7472568676423</v>
+        <v>317.525316919682</v>
       </c>
       <c r="E3" t="n">
-        <v>160.7472568676423</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676423</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618844</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>268.2479876888895</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M3" t="n">
-        <v>541.6429362542214</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="N3" t="n">
-        <v>815.0378848195533</v>
+        <v>551.996449470862</v>
       </c>
       <c r="O3" t="n">
-        <v>1081.534698402837</v>
+        <v>794.113554508393</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U3" t="n">
-        <v>992.8050881287816</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V3" t="n">
-        <v>757.6529798970389</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W3" t="n">
-        <v>503.4156231688373</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="X3" t="n">
-        <v>503.4156231688373</v>
+        <v>523.3663662479838</v>
       </c>
       <c r="Y3" t="n">
-        <v>503.4156231688373</v>
+        <v>523.3663662479838</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="S4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.1756025565036</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982761</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="C5" t="n">
-        <v>567.2866436578645</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="D5" t="n">
-        <v>567.2866436578645</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="E5" t="n">
-        <v>181.4983910596202</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="F5" t="n">
-        <v>181.4983910596202</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="G5" t="n">
-        <v>181.4983910596202</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885137</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>907.4554057415448</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>907.4554057415448</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982761</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982761</v>
+        <v>556.9999364092498</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>293.1830538602616</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>293.1830538602616</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>293.1830538602616</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>655.5433744062259</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>554.1940864828883</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>554.1940864828883</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>299.9567297546867</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>299.9567297546867</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>299.9567297546867</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247703</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.952954307291</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="D8" t="n">
-        <v>1011.161018525332</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E8" t="n">
-        <v>625.3727659270879</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>504.7174150440222</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>330.2643857628952</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>1046.816664784802</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>874.8126520359809</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>672.9327520640902</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>672.9327520640902</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>672.9327520640902</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>672.9327520640902</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>672.9327520640902</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>672.9327520640902</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>35.69404619719919</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1568.353113282533</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C11" t="n">
-        <v>1568.353113282533</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="D11" t="n">
-        <v>1210.087414675782</v>
+        <v>470.995045062667</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>470.995045062667</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>60.00914027305942</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>60.00914027305942</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5039,13 +5041,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2681.187366877849</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W11" t="n">
-        <v>2328.418711607735</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X11" t="n">
-        <v>1954.952953346655</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.952953346655</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5121,22 +5123,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.5654064942404</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C13" t="n">
-        <v>550.5654064942404</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D13" t="n">
-        <v>550.5654064942404</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E13" t="n">
-        <v>550.5654064942404</v>
+        <v>140.682081174745</v>
       </c>
       <c r="F13" t="n">
-        <v>550.5654064942404</v>
+        <v>140.682081174745</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I13" t="n">
         <v>99.5995062532301</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>550.5654064942404</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X13" t="n">
-        <v>550.5654064942404</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.5654064942404</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2247.308246834948</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>143.3161268880446</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>143.3161268880446</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>143.3161268880446</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>143.3161268880446</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
@@ -5309,19 +5311,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X14" t="n">
-        <v>2247.308246834948</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y14" t="n">
-        <v>2247.308246834948</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5358,13 +5360,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5391,13 +5393,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C16" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D16" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E16" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X16" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2169.72394915887</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>649.0355008208533</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>649.0355008208533</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>649.0355008208533</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>649.0355008208533</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>231.0716927190401</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V17" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W17" t="n">
-        <v>2169.72394915887</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X17" t="n">
-        <v>2169.72394915887</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y17" t="n">
-        <v>2169.72394915887</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5585,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5704,10 +5706,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1251.855211652197</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117852</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5750,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5786,16 +5788,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W20" t="n">
-        <v>2402.06014195321</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X20" t="n">
-        <v>2028.59438369213</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y20" t="n">
-        <v>1638.455051716319</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>2346.500825926315</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>2188.752453358845</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>2052.423542457494</v>
       </c>
       <c r="J22" t="n">
         <v>2022.963088632153</v>
@@ -5932,28 +5934,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>2425.404132605923</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>2425.404132605923</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>2425.404132605923</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V22" t="n">
-        <v>2425.404132605923</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W22" t="n">
-        <v>2425.404132605923</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X22" t="n">
-        <v>2425.404132605923</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y22" t="n">
-        <v>2204.611553462393</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1580.775345511217</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="C23" t="n">
-        <v>1580.775345511217</v>
+        <v>630.5276477770158</v>
       </c>
       <c r="D23" t="n">
-        <v>1222.509646904467</v>
+        <v>630.5276477770158</v>
       </c>
       <c r="E23" t="n">
-        <v>836.7213943062222</v>
+        <v>630.5276477770158</v>
       </c>
       <c r="F23" t="n">
-        <v>425.7354895166147</v>
+        <v>219.5417429874082</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748109</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487029</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6065,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>598.044640063212</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V25" t="n">
-        <v>343.3601518573251</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>2173.079728044489</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>833.8914035503838</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="C26" t="n">
-        <v>464.928886609972</v>
+        <v>626.9881558653258</v>
       </c>
       <c r="D26" t="n">
-        <v>464.928886609972</v>
+        <v>626.9881558653258</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>241.1999032670815</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>241.1999032670815</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>241.1999032670815</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224075</v>
@@ -6242,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2189.908715988822</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W26" t="n">
-        <v>1837.140060718708</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X26" t="n">
-        <v>1610.630575590317</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1220.491243614505</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6324,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>325.2978374347316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>325.2978374347316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>325.2978374347316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>325.2978374347316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>325.2978374347316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>257.3478788207</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>579.9823256406185</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V28" t="n">
-        <v>325.2978374347316</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2978374347316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X28" t="n">
-        <v>325.2978374347316</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>325.2978374347316</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.982837814967</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082163</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036446</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2575.578876772191</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2575.578876772191</v>
+        <v>2325.826086241693</v>
       </c>
       <c r="U29" t="n">
-        <v>2321.817091410283</v>
+        <v>2325.826086241693</v>
       </c>
       <c r="V29" t="n">
-        <v>2321.817091410283</v>
+        <v>1994.763198898123</v>
       </c>
       <c r="W29" t="n">
-        <v>1969.048436140168</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="X29" t="n">
-        <v>1595.582677879089</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.582677879089</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>368.9169416640007</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="C31" t="n">
-        <v>368.9169416640007</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="D31" t="n">
-        <v>368.9169416640007</v>
+        <v>2547.032451605887</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>2486.040172362642</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>2486.040172362642</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>2317.040372100975</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942404</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>550.5654064942404</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>550.5654064942404</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U31" t="n">
-        <v>550.5654064942404</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V31" t="n">
-        <v>550.5654064942404</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W31" t="n">
-        <v>550.5654064942404</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X31" t="n">
-        <v>550.5654064942404</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y31" t="n">
-        <v>550.5654064942404</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>207.4089578252748</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="C32" t="n">
-        <v>207.4089578252748</v>
+        <v>1723.514638661394</v>
       </c>
       <c r="D32" t="n">
-        <v>207.4089578252748</v>
+        <v>1365.248940054644</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>979.4606874563995</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>568.474782666792</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6710,16 +6712,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
@@ -6728,22 +6730,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.546461473041</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X32" t="n">
-        <v>936.2491605982761</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y32" t="n">
-        <v>546.1098286224644</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6798,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6862,37 +6864,37 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>2482.860667836386</v>
+        <v>2601.553869014546</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.136698977585</v>
+        <v>2601.553869014546</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W34" t="n">
         <v>2022.963088632153</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1099.292566481064</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C35" t="n">
-        <v>730.330049540652</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D35" t="n">
-        <v>730.330049540652</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E35" t="n">
-        <v>344.5417969424078</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="F35" t="n">
-        <v>344.5417969424078</v>
+        <v>414.2270837170756</v>
       </c>
       <c r="G35" t="n">
-        <v>344.5417969424078</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1485.892406545185</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X35" t="n">
-        <v>1485.892406545185</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y35" t="n">
-        <v>1485.892406545185</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
         <v>309.190302261463</v>
@@ -7032,25 +7034,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2515.500626187983</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2196.44780384774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2048.534710265347</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018223</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018223</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1249.712458167646</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C38" t="n">
-        <v>880.7499412272343</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D38" t="n">
-        <v>534.603677789272</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E38" t="n">
-        <v>534.603677789272</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7208,16 +7210,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X38" t="n">
-        <v>1639.851790143458</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249.712458167646</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7265,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>2407.975480672791</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V40" t="n">
-        <v>2407.975480672791</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>798.4928208132003</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
         <v>53.94298182036445</v>
@@ -7409,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2550.229062637727</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2296.467277275819</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V41" t="n">
-        <v>2296.467277275819</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W41" t="n">
-        <v>1943.698622005704</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X41" t="n">
-        <v>1943.698622005704</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7509,22 +7511,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2489.992621888549</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="C43" t="n">
-        <v>2489.992621888549</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="D43" t="n">
-        <v>2339.875982476214</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E43" t="n">
-        <v>2191.96288889382</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F43" t="n">
-        <v>2191.96288889382</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2489.992621888549</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="T43" t="n">
-        <v>2489.992621888549</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="U43" t="n">
-        <v>2489.992621888549</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="V43" t="n">
-        <v>2489.992621888549</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="W43" t="n">
-        <v>2489.992621888549</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="X43" t="n">
-        <v>2489.992621888549</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="Y43" t="n">
-        <v>2489.992621888549</v>
+        <v>675.4941957298054</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1199.13500546934</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C44" t="n">
-        <v>830.1724885289282</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D44" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
         <v>471.9067899221776</v>
@@ -7646,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7670,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2112.324418312743</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>1759.555763042629</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1589.274337445152</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y44" t="n">
-        <v>1199.13500546934</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
@@ -7737,7 +7739,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537797</v>
@@ -7746,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F46" t="n">
         <v>2022.963088632153</v>
@@ -7834,22 +7836,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>2469.840903686824</v>
+        <v>2606.939740057888</v>
       </c>
       <c r="U46" t="n">
-        <v>2469.840903686824</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="V46" t="n">
-        <v>2425.404132605923</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="W46" t="n">
-        <v>2425.404132605923</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="X46" t="n">
-        <v>2425.404132605923</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="Y46" t="n">
-        <v>2204.611553462393</v>
+        <v>2317.766129712456</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>305.1943842085481</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P3" t="n">
-        <v>142.9145225887215</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>325.9658317557535</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142012</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11385,10 +11387,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.1619485273195</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>6.781739002849037</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>225.4035516736084</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X2" t="n">
-        <v>126.4924434094344</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>135.4590438031643</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22632,7 +22634,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22641,10 +22643,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>115.2336692283599</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>125.5212316362309</v>
       </c>
       <c r="S4" t="n">
-        <v>62.71706855778072</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>197.6429176174939</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>138.9819795995941</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>159.8272445143865</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22914,22 +22916,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>84.79256385362739</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229438</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>244.0090251965436</v>
+        <v>111.4443843516483</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="9">
@@ -23109,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>38.2495477760063</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23154,19 +23156,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>140.0857793320303</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6835682680295</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>317.9172758961892</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23315,7 +23317,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>311.9501515711652</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>11.99007165458411</v>
+        <v>126.6380530867512</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.9689958712394</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>325.3047564037917</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>128.2883697226013</v>
+        <v>133.180554286696</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>303.7774505705572</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>148.5653489746682</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23944,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24026,10 +24028,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W20" t="n">
-        <v>57.10290914305114</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>16.03410990144974</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>89.78322210199998</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>45.70958740150729</v>
+        <v>249.8413964654217</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24260,10 +24262,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>19.59084822180901</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>290.4697367769685</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>145.486710401362</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>100.0393432311596</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>54.06120070540003</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>77.73266101267683</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.919544660420257</v>
+        <v>86.05160619575676</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,13 +24855,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.41997957426287</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>380.2517761920502</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25123,10 +25125,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>117.5062691663791</v>
       </c>
       <c r="T34" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25160,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>57.10290914305097</v>
       </c>
       <c r="H35" t="n">
-        <v>36.22994579353434</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>120.1051426060693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25369,13 +25371,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>11.99824081710022</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>25.24910919451776</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,7 +25450,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>123.9453835684546</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>24.45474675948697</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>125.4758948357792</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25789,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>153.7258264918003</v>
+        <v>160.0370983581564</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25865,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>201.1524893369664</v>
+        <v>158.9993246194569</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26074,13 +26076,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>135.7278480073534</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>208.1452399537355</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>469065.4218355754</v>
+        <v>443402.8450062394</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>760654.695576272</v>
+        <v>459065.0892292971</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>760654.695576272</v>
+        <v>469065.4218355754</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760654.6955762716</v>
+        <v>760654.6955762719</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.695576272</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760654.695576272</v>
+        <v>760654.6955762719</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760654.6955762719</v>
+        <v>760654.6955762716</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>150588.1755146546</v>
+      </c>
+      <c r="C2" t="n">
+        <v>156006.1355264978</v>
+      </c>
+      <c r="D2" t="n">
         <v>159463.6497950859</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="E2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="F2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="H2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147456</v>
+        <v>23645.34018189503</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214145</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>394217.2929137605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>63988.37154589874</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957467</v>
+        <v>4807.454491750063</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581557</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99215.77767884449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8552.584737532374</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8577.315374774353</v>
+      </c>
+      <c r="D4" t="n">
         <v>8599.193178783524</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="D4" t="n">
-        <v>9371.018034361481</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9371.018034361485</v>
-      </c>
       <c r="F4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="I4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="J4" t="n">
         <v>9371.018034361483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9371.018034361485</v>
       </c>
       <c r="K4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
         <v>9371.018034361481</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="O4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>48577.10433863014</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50134.40740683334</v>
+      </c>
+      <c r="D5" t="n">
         <v>51181.37951678014</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26488,19 +26490,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26610.26434729079</v>
+        <v>7959.707837283058</v>
       </c>
       <c r="C6" t="n">
-        <v>-272700.8305983348</v>
+        <v>73649.0725629951</v>
       </c>
       <c r="D6" t="n">
-        <v>168007.2529164107</v>
+        <v>85387.73739738076</v>
       </c>
       <c r="E6" t="n">
-        <v>201634.8529164107</v>
+        <v>-192582.4399973497</v>
       </c>
       <c r="F6" t="n">
-        <v>201634.8529164107</v>
+        <v>201634.8529164108</v>
       </c>
       <c r="G6" t="n">
-        <v>201634.8529164107</v>
+        <v>201634.8529164108</v>
       </c>
       <c r="H6" t="n">
         <v>201634.8529164108</v>
@@ -26543,16 +26545,16 @@
         <v>201634.8529164107</v>
       </c>
       <c r="J6" t="n">
-        <v>129380.1580452717</v>
+        <v>137646.4813705119</v>
       </c>
       <c r="K6" t="n">
-        <v>99168.73572066412</v>
+        <v>196827.3984246606</v>
       </c>
       <c r="L6" t="n">
-        <v>201634.8529164108</v>
+        <v>198366.3143218291</v>
       </c>
       <c r="M6" t="n">
-        <v>201634.8529164107</v>
+        <v>102419.0752375662</v>
       </c>
       <c r="N6" t="n">
         <v>201634.8529164107</v>
@@ -26561,7 +26563,7 @@
         <v>201634.8529164107</v>
       </c>
       <c r="P6" t="n">
-        <v>201634.8529164108</v>
+        <v>201634.8529164107</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26756,13 +26758,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170867</v>
@@ -26774,7 +26776,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170867</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26808,19 +26810,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
+        <v>19.339519793547</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.00787803233597</v>
+      </c>
+      <c r="E3" t="n">
         <v>342.7224034979614</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,17 +27011,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
+        <v>18.6793015905242</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.91447975068883</v>
+      </c>
+      <c r="E4" t="n">
         <v>398.1307590522002</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
+        <v>18.67930159052432</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.91447975068871</v>
+      </c>
+      <c r="M4" t="n">
         <v>398.1307590522002</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
+        <v>18.6793015905242</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.91447975068883</v>
+      </c>
+      <c r="M4" t="n">
         <v>398.1307590522002</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32698,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,22 +32882,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>248.6418854471727</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>175.9079211413127</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>23.3246024308939</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>207.4983704266081</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082925</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K35" t="n">
         <v>297.223041434342</v>
@@ -37400,10 +37402,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492237</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
         <v>297.223041434342</v>
@@ -38105,10 +38107,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735647</v>
